--- a/public/template/手机定位适配（蓝牙灵敏度等级切换）.xlsx
+++ b/public/template/手机定位适配（蓝牙灵敏度等级切换）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\front_workspace\dks_front\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A6F6F-92E5-DD4C-97AE-F0B3B7F22510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B2DE8-26A0-4373-8DA3-BF09A147EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="760" windowWidth="22320" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>IP42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上为示例数据，录入数据请从第二行开始，完成录入后，请删除本行及示例数据！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +73,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,8 +107,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,19 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.1640625" customWidth="1"/>
+    <col min="3" max="3" width="70.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -471,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -482,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -491,11 +506,17 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -505,7 +526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,7 +539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/手机定位适配（蓝牙灵敏度等级切换）.xlsx
+++ b/public/template/手机定位适配（蓝牙灵敏度等级切换）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\front_workspace\dks_front\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dkserver-front-saic\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B2DE8-26A0-4373-8DA3-BF09A147EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441B918-098C-4BF8-B1A0-F87554C5E8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
-    <t>车型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标定数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,6 +49,10 @@
   </si>
   <si>
     <t>以上为示例数据，录入数据请从第二行开始，完成录入后，请删除本行及示例数据！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,51 +466,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
